--- a/data/trans_orig/P71_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P71_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>152609</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133733</v>
+        <v>132677</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173536</v>
+        <v>173329</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3261709772319275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2858289560261299</v>
+        <v>0.2835710606079029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3708995909085455</v>
+        <v>0.3704573733130666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -765,19 +765,19 @@
         <v>84696</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70416</v>
+        <v>71275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100324</v>
+        <v>101873</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2799493032763755</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2327465807056171</v>
+        <v>0.2355859725886486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3316035249313476</v>
+        <v>0.3367232103227407</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>231</v>
@@ -786,19 +786,19 @@
         <v>237305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>210771</v>
+        <v>213190</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>263457</v>
+        <v>263371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3080198500683088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2735783496710706</v>
+        <v>0.2767189714157986</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3419653127741548</v>
+        <v>0.3418534492794271</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>192627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>170762</v>
+        <v>172039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>214260</v>
+        <v>214740</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4117033678749683</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3649702530820694</v>
+        <v>0.3676987856050822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4579396591557688</v>
+        <v>0.4589638074238294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -836,19 +836,19 @@
         <v>127921</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111244</v>
+        <v>111454</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>145852</v>
+        <v>145509</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4228213352338157</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3676976105234227</v>
+        <v>0.3683911944015991</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4820870937615697</v>
+        <v>0.4809548697500859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>314</v>
@@ -857,19 +857,19 @@
         <v>320549</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>292765</v>
+        <v>293175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>348172</v>
+        <v>349264</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4160693637825475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.380006083527806</v>
+        <v>0.3805381991877079</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.45192403000167</v>
+        <v>0.4533420469418742</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>91003</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76053</v>
+        <v>74007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112047</v>
+        <v>111289</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1945003553873326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1625493838114111</v>
+        <v>0.1581747157917527</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.239478521254754</v>
+        <v>0.2378581400559353</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -907,19 +907,19 @@
         <v>49427</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37289</v>
+        <v>38246</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63587</v>
+        <v>63788</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1633722211572027</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1232522058183048</v>
+        <v>0.1264155701694065</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2101766685819186</v>
+        <v>0.2108389084728059</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -928,19 +928,19 @@
         <v>140430</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>119316</v>
+        <v>120221</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>161872</v>
+        <v>163047</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1822764207171904</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1548711224080223</v>
+        <v>0.1560457710304901</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2101089857847873</v>
+        <v>0.2116332255127966</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>31640</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21907</v>
+        <v>21679</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45957</v>
+        <v>44831</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06762529950577159</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04682111880172599</v>
+        <v>0.04633561287339506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09822347557212267</v>
+        <v>0.09581789233326954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -978,19 +978,19 @@
         <v>40497</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30068</v>
+        <v>29251</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53199</v>
+        <v>53772</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1338571403326063</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09938302522889397</v>
+        <v>0.09668361628930379</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.175838724189197</v>
+        <v>0.1777326766852887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -999,19 +999,19 @@
         <v>72138</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56074</v>
+        <v>57144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90353</v>
+        <v>90465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09363436543195326</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07278397869533379</v>
+        <v>0.0741723696372503</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.117276869616862</v>
+        <v>0.1174232915786139</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>63600</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49016</v>
+        <v>49337</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>80775</v>
+        <v>79681</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1760742828256296</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1356992873131312</v>
+        <v>0.1365892551762599</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2236221594737877</v>
+        <v>0.2205948819070518</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -1124,19 +1124,19 @@
         <v>60335</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47935</v>
+        <v>47748</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78059</v>
+        <v>74953</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1647975854614682</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.13092988440786</v>
+        <v>0.1304183536299703</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2132091377536518</v>
+        <v>0.2047260927671388</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>122</v>
@@ -1145,19 +1145,19 @@
         <v>123935</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>105042</v>
+        <v>102270</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>144403</v>
+        <v>144106</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.170397905436598</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1444223242597757</v>
+        <v>0.1406110142586917</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1985393766159496</v>
+        <v>0.1981316455288309</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>152407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134478</v>
+        <v>133826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172697</v>
+        <v>171744</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4219359525417745</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3722986408635677</v>
+        <v>0.3704924383384672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4781060363066538</v>
+        <v>0.4754678114066673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>133</v>
@@ -1195,19 +1195,19 @@
         <v>136870</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>118634</v>
+        <v>119128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156077</v>
+        <v>156234</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.37384436008759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3240343905398807</v>
+        <v>0.3253833947814873</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4263055662949777</v>
+        <v>0.4267339331407173</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>276</v>
@@ -1216,19 +1216,19 @@
         <v>289277</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>262715</v>
+        <v>261810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>316488</v>
+        <v>315800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3977279757562099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3612068741206609</v>
+        <v>0.3599632701847666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4351401563274284</v>
+        <v>0.4341932635045874</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>99806</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83398</v>
+        <v>83448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117659</v>
+        <v>116650</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2763104588883399</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2308846762973823</v>
+        <v>0.2310234002413365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3257356138424959</v>
+        <v>0.3229416684110134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1266,19 +1266,19 @@
         <v>97861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82413</v>
+        <v>81265</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118050</v>
+        <v>115826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2672957510873631</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2251005122851625</v>
+        <v>0.2219648322660887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3224410287467069</v>
+        <v>0.3163638956376492</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -1287,19 +1287,19 @@
         <v>197667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174738</v>
+        <v>175082</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>221916</v>
+        <v>222223</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2717727044485676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2402476267434324</v>
+        <v>0.2407204245199197</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3051121047700771</v>
+        <v>0.3055346852928653</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>45397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33714</v>
+        <v>33143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58494</v>
+        <v>59145</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.125679305744256</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09333576755896597</v>
+        <v>0.09175480213693041</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1619387643108313</v>
+        <v>0.1637418799028919</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>68</v>
@@ -1337,19 +1337,19 @@
         <v>71049</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55702</v>
+        <v>56119</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>85826</v>
+        <v>86586</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1940623033635786</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1521441999421165</v>
+        <v>0.1532817617510348</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2344240172762708</v>
+        <v>0.2364983576939125</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -1358,19 +1358,19 @@
         <v>116446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>98694</v>
+        <v>99350</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135377</v>
+        <v>139146</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1601014143586244</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1356941410655865</v>
+        <v>0.1365959220483111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1861299898554968</v>
+        <v>0.1913114320478414</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>55072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41630</v>
+        <v>42833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70689</v>
+        <v>70632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1032068160456666</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07801525375920706</v>
+        <v>0.08026975155853015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1324729879075995</v>
+        <v>0.1323675214734923</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1483,19 +1483,19 @@
         <v>22772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15235</v>
+        <v>15381</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32246</v>
+        <v>33658</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1381370633698892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09241425680676243</v>
+        <v>0.09330158041362865</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.195604669482488</v>
+        <v>0.2041695608274793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>76</v>
@@ -1504,19 +1504,19 @@
         <v>77844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>60786</v>
+        <v>61610</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95903</v>
+        <v>95203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1114511584291284</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08702906835024155</v>
+        <v>0.08820839609610565</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1373064793171073</v>
+        <v>0.1363045995114979</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>201454</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>180799</v>
+        <v>177646</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>225379</v>
+        <v>224677</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3775312644578304</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3388237356837936</v>
+        <v>0.3329140284557374</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4223673254214829</v>
+        <v>0.4210516107017371</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -1554,19 +1554,19 @@
         <v>47655</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37363</v>
+        <v>35583</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>60623</v>
+        <v>59493</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2890782247895027</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.226646188650362</v>
+        <v>0.2158445832869536</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3677382628148265</v>
+        <v>0.3608837183348146</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>239</v>
@@ -1575,19 +1575,19 @@
         <v>249109</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>223717</v>
+        <v>224515</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>276006</v>
+        <v>274793</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3566543111080633</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3202999078736955</v>
+        <v>0.3214429473448041</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3951638947043739</v>
+        <v>0.393426773236</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>196883</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>174730</v>
+        <v>174985</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>217114</v>
+        <v>219396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3689664404126803</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3274502592084296</v>
+        <v>0.3279287325981317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4068795484049457</v>
+        <v>0.411154916552452</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -1625,19 +1625,19 @@
         <v>59256</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45982</v>
+        <v>47822</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71819</v>
+        <v>72403</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3594504020941246</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2789292433783679</v>
+        <v>0.2900869276572554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4356565514628808</v>
+        <v>0.4391944409751642</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>253</v>
@@ -1646,19 +1646,19 @@
         <v>256140</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>229792</v>
+        <v>230899</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>283193</v>
+        <v>281283</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3667204363319159</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3289975973291832</v>
+        <v>0.3305824167732264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4054531317719464</v>
+        <v>0.4027185101201093</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>80199</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65441</v>
+        <v>64414</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>98652</v>
+        <v>98571</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1502954790838226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1226379011390941</v>
+        <v>0.1207144125222988</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1848769744561826</v>
+        <v>0.1847250475171349</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1696,19 +1696,19 @@
         <v>35169</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25789</v>
+        <v>25632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46782</v>
+        <v>45947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2133343097464836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1564367706515789</v>
+        <v>0.1554835087377908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2837780354682695</v>
+        <v>0.2787164892234906</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>116</v>
@@ -1717,19 +1717,19 @@
         <v>115367</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>97498</v>
+        <v>97078</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136704</v>
+        <v>136744</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1651740941308923</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1395897044455642</v>
+        <v>0.1389890361641094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1957221888172926</v>
+        <v>0.1957796070315084</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>102626</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85416</v>
+        <v>85460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>124811</v>
+        <v>123217</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08399423294461553</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06990921913112157</v>
+        <v>0.0699448582923398</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1021521289332873</v>
+        <v>0.1008468520345843</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1842,19 +1842,19 @@
         <v>56504</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43682</v>
+        <v>44179</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70896</v>
+        <v>71780</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08159892190857347</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06308239127626691</v>
+        <v>0.06379928176578242</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1023824723203192</v>
+        <v>0.1036588604112462</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>155</v>
@@ -1863,19 +1863,19 @@
         <v>159130</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135429</v>
+        <v>137708</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>184488</v>
+        <v>186150</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08312776338647472</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07074678095573574</v>
+        <v>0.07193734031206322</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09637422701366409</v>
+        <v>0.09724273418237825</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>368561</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>338128</v>
+        <v>337300</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>401965</v>
+        <v>403402</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3016497138595777</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2767417580604156</v>
+        <v>0.2760641789434937</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3289891595318026</v>
+        <v>0.3301647120759815</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>200</v>
@@ -1913,19 +1913,19 @@
         <v>201532</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>178322</v>
+        <v>179385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227551</v>
+        <v>224973</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2910355568639743</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2575183146395046</v>
+        <v>0.2590528992910692</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3286095624302798</v>
+        <v>0.3248867337256811</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>565</v>
@@ -1934,19 +1934,19 @@
         <v>570093</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>527720</v>
+        <v>531425</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>609332</v>
+        <v>610378</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2978101941547738</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2756748533171379</v>
+        <v>0.2776102069925532</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3183079819636674</v>
+        <v>0.3188544053483582</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>475407</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>441868</v>
+        <v>440335</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>510570</v>
+        <v>510176</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3890976294710483</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3616478869418248</v>
+        <v>0.3603928463195146</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4178768369949037</v>
+        <v>0.417554313216412</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>248</v>
@@ -1984,19 +1984,19 @@
         <v>257067</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>232781</v>
+        <v>231259</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>285808</v>
+        <v>281981</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3712345972036493</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3361635543247442</v>
+        <v>0.3339645243849286</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.412740247081061</v>
+        <v>0.4072131053645411</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>719</v>
@@ -2005,19 +2005,19 @@
         <v>732474</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>690979</v>
+        <v>692656</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>774703</v>
+        <v>777410</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3826359326630365</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3609595880899626</v>
+        <v>0.3618356417892555</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4046958768552211</v>
+        <v>0.4061101059050404</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>275225</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>247002</v>
+        <v>248279</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>305553</v>
+        <v>304992</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2252584237247585</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2021595661284519</v>
+        <v>0.2032044848796398</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2500806321342727</v>
+        <v>0.2496209615149055</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>169</v>
@@ -2055,19 +2055,19 @@
         <v>177362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>156540</v>
+        <v>155872</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202199</v>
+        <v>202956</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.256130924023803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2260626327839668</v>
+        <v>0.2250975072291738</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2919990228789176</v>
+        <v>0.2930920200377808</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>440</v>
@@ -2076,19 +2076,19 @@
         <v>452587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>414458</v>
+        <v>418844</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>489905</v>
+        <v>495112</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2364261097957149</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.216508095588602</v>
+        <v>0.218799510167192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2559206283271516</v>
+        <v>0.2586407370104048</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>20022</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11935</v>
+        <v>12849</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30426</v>
+        <v>30864</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05780239515188349</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03445690451873561</v>
+        <v>0.03709464162422205</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08783860048265775</v>
+        <v>0.08910375612766203</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2201,19 +2201,19 @@
         <v>14273</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8170</v>
+        <v>8096</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23472</v>
+        <v>24681</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02578591629102119</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01475986796388876</v>
+        <v>0.01462558936941616</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04240421570902873</v>
+        <v>0.04458914534045561</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -2222,19 +2222,19 @@
         <v>34295</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>22847</v>
+        <v>24328</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>48708</v>
+        <v>47237</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03810934534871878</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02538853369652986</v>
+        <v>0.02703418165110509</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05412575179026649</v>
+        <v>0.05249093961157222</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>70006</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>57410</v>
+        <v>56992</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87234</v>
+        <v>87388</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2021082094104094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1657414508153668</v>
+        <v>0.1645370221046669</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2518452361738486</v>
+        <v>0.2522899755198731</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -2272,19 +2272,19 @@
         <v>143230</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>123457</v>
+        <v>122055</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>166282</v>
+        <v>164399</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2587616531911466</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2230392197432261</v>
+        <v>0.2205066937056173</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3004068162447937</v>
+        <v>0.2970060899076308</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>209</v>
@@ -2293,19 +2293,19 @@
         <v>213236</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>189746</v>
+        <v>187688</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>239502</v>
+        <v>241145</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2369552359914205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2108513659792199</v>
+        <v>0.2085649560067826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2661420384107671</v>
+        <v>0.2679675782921316</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>138925</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>121192</v>
+        <v>119825</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>157232</v>
+        <v>158510</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4010778353253718</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3498824102983251</v>
+        <v>0.3459357784938127</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4539303478003364</v>
+        <v>0.4576176904978861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>191</v>
@@ -2343,19 +2343,19 @@
         <v>199837</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>177212</v>
+        <v>176459</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>222269</v>
+        <v>222224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3610285547953007</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3201539151864806</v>
+        <v>0.3187926748461611</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4015540405260173</v>
+        <v>0.4014732130304065</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>325</v>
@@ -2364,19 +2364,19 @@
         <v>338763</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>307073</v>
+        <v>309529</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>368570</v>
+        <v>366512</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.376443881058036</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3412295660380401</v>
+        <v>0.3439582449467971</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4095673311667385</v>
+        <v>0.407279472329606</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>117427</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>101387</v>
+        <v>101322</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>135461</v>
+        <v>137047</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3390115601123354</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2927034076382437</v>
+        <v>0.2925180814232452</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3910759709803424</v>
+        <v>0.3956538421571166</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>181</v>
@@ -2414,19 +2414,19 @@
         <v>196181</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>173201</v>
+        <v>173438</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>220430</v>
+        <v>218520</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3544238757225316</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3129064800063495</v>
+        <v>0.3133344705559404</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3982312339019174</v>
+        <v>0.394780795391667</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>294</v>
@@ -2435,19 +2435,19 @@
         <v>313608</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>283291</v>
+        <v>285436</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>342293</v>
+        <v>341555</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3484915376018247</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3148019451539734</v>
+        <v>0.3171859909506388</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3803664591364321</v>
+        <v>0.3795468178368599</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>51814</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39154</v>
+        <v>40709</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>65867</v>
+        <v>65892</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.176489403039886</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1333663245948608</v>
+        <v>0.1386632712371389</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2243562945345836</v>
+        <v>0.2244419139850906</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>104</v>
@@ -2560,19 +2560,19 @@
         <v>102577</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85380</v>
+        <v>84350</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123063</v>
+        <v>122286</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08309870742768279</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06916712408429872</v>
+        <v>0.06833275975903934</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0996947437237008</v>
+        <v>0.09906547095065024</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>158</v>
@@ -2581,19 +2581,19 @@
         <v>154391</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>133979</v>
+        <v>132838</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>180577</v>
+        <v>178549</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1010424480575963</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08768354861196191</v>
+        <v>0.08693719388174889</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.118180051377424</v>
+        <v>0.1168530679868378</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>133815</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>117706</v>
+        <v>116907</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>150363</v>
+        <v>150122</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4558040016828448</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4009337690685504</v>
+        <v>0.3982123836962756</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5121712357312952</v>
+        <v>0.5113492905748724</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>337</v>
@@ -2631,19 +2631,19 @@
         <v>335658</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>305591</v>
+        <v>303205</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>367291</v>
+        <v>367317</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2719199327514991</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.247562804613825</v>
+        <v>0.2456292684849238</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2975466572590405</v>
+        <v>0.2975672989854599</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>477</v>
@@ -2652,19 +2652,19 @@
         <v>469473</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>431493</v>
+        <v>438413</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>504793</v>
+        <v>507780</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3072507332905418</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2823947752218465</v>
+        <v>0.2869234531765658</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3303663307827087</v>
+        <v>0.3323214031369466</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>73698</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>60449</v>
+        <v>60061</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>89439</v>
+        <v>89346</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2510313633047198</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2059023730183294</v>
+        <v>0.2045798343170578</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3046494582482135</v>
+        <v>0.3043323851658393</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>389</v>
@@ -2702,19 +2702,19 @@
         <v>394089</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>363338</v>
+        <v>365182</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>426536</v>
+        <v>425891</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.319256123345348</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2943436740749602</v>
+        <v>0.2958377657360949</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3455412689065587</v>
+        <v>0.3450187448743827</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>462</v>
@@ -2723,19 +2723,19 @@
         <v>467787</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>433075</v>
+        <v>432963</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>506658</v>
+        <v>504928</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3061476719018494</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2834302389121756</v>
+        <v>0.2833565354338834</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.331587128257553</v>
+        <v>0.3304549768421893</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>34254</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24537</v>
+        <v>24167</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>46094</v>
+        <v>45905</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1166752319725495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08357859825587202</v>
+        <v>0.0823186882190946</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1570071071924981</v>
+        <v>0.1563629568103321</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>394</v>
@@ -2773,19 +2773,19 @@
         <v>402075</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>365865</v>
+        <v>366343</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>431460</v>
+        <v>434454</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3257252364754701</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2963913837131169</v>
+        <v>0.2967782545262072</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3495300425224356</v>
+        <v>0.3519558529447739</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>428</v>
@@ -2794,19 +2794,19 @@
         <v>436328</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>401916</v>
+        <v>400455</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>475370</v>
+        <v>474144</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2855591467500125</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2630376094445678</v>
+        <v>0.2620813112917232</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3111105765432772</v>
+        <v>0.3103081418732358</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>445741</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>408372</v>
+        <v>408626</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>485917</v>
+        <v>487686</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1382368421596854</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1266474947225089</v>
+        <v>0.1267264061187053</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1506964060585087</v>
+        <v>0.1512451097960312</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>339</v>
@@ -2919,19 +2919,19 @@
         <v>341158</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>307939</v>
+        <v>307272</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>377155</v>
+        <v>378784</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1029477512856768</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09292359767488331</v>
+        <v>0.0927222871394606</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.113810254153445</v>
+        <v>0.1143018830815115</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>774</v>
@@ -2940,19 +2940,19 @@
         <v>786899</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>735522</v>
+        <v>741657</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>837185</v>
+        <v>842023</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1203509877817274</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1124931969161358</v>
+        <v>0.1134315095936944</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1280418260263912</v>
+        <v>0.1287818102016837</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>1118871</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1064196</v>
+        <v>1062291</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1170027</v>
+        <v>1172036</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3469931248052837</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3300369054828431</v>
+        <v>0.3294459414668221</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.362858180752561</v>
+        <v>0.3634809258764843</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>981</v>
@@ -2990,19 +2990,19 @@
         <v>992866</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>945184</v>
+        <v>940826</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1044523</v>
+        <v>1050710</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2996070629025764</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2852184924830274</v>
+        <v>0.2839033165318496</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3151948712772222</v>
+        <v>0.3170618714816926</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2080</v>
@@ -3011,19 +3011,19 @@
         <v>2111737</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2036570</v>
+        <v>2030026</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2179095</v>
+        <v>2183786</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3229760650923353</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3114796964734908</v>
+        <v>0.3104788490752574</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.333277939074532</v>
+        <v>0.3339954206120276</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>1075722</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1021287</v>
+        <v>1025623</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1130087</v>
+        <v>1130391</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3336114831078938</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3167297051458513</v>
+        <v>0.3180743332935058</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3504716447196204</v>
+        <v>0.3505657150993328</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1028</v>
@@ -3061,19 +3061,19 @@
         <v>1057538</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1008716</v>
+        <v>1005826</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1112282</v>
+        <v>1109524</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3191222576355126</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3043897836920116</v>
+        <v>0.3035179036614996</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.335641873566823</v>
+        <v>0.3348097353699198</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2081</v>
@@ -3082,19 +3082,19 @@
         <v>2133260</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2060270</v>
+        <v>2055809</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2208398</v>
+        <v>2205830</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3262677921702709</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.315104424803222</v>
+        <v>0.3144221562855409</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3377596229857268</v>
+        <v>0.3373668378791583</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>584141</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>542333</v>
+        <v>541978</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>631916</v>
+        <v>628822</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1811585499271371</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1681926950970672</v>
+        <v>0.1680824139096763</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1959749370979341</v>
+        <v>0.1950151816342872</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>885</v>
@@ -3132,19 +3132,19 @@
         <v>922333</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>870326</v>
+        <v>870585</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>976298</v>
+        <v>971324</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2783229281762342</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2626293650602905</v>
+        <v>0.2627073833455066</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2946074321969873</v>
+        <v>0.2931063979580996</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1459</v>
@@ -3153,19 +3153,19 @@
         <v>1506474</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1440052</v>
+        <v>1440127</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1570922</v>
+        <v>1576208</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2304051549556664</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2202462663057076</v>
+        <v>0.2202577341456956</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2402619505559392</v>
+        <v>0.2410704834698922</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>145710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122061</v>
+        <v>124277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165736</v>
+        <v>166784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3357213626112633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.28123411442639</v>
+        <v>0.2863389149355286</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3818617950896686</v>
+        <v>0.3842763584783033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -3520,19 +3520,19 @@
         <v>95006</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76642</v>
+        <v>78057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112355</v>
+        <v>112603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3031127249056892</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2445214502817807</v>
+        <v>0.2490381798244102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3584621968168276</v>
+        <v>0.3592555318042672</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>216</v>
@@ -3541,19 +3541,19 @@
         <v>240716</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>212376</v>
+        <v>213804</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268085</v>
+        <v>270456</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.322047382258198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2841326687668971</v>
+        <v>0.2860430174218457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3586631698896134</v>
+        <v>0.3618364284360615</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>145872</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>125621</v>
+        <v>124579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167912</v>
+        <v>167544</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3360961097185677</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2894363924827082</v>
+        <v>0.2870358456780532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.386875562272997</v>
+        <v>0.3860291736945197</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -3591,19 +3591,19 @@
         <v>106206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88024</v>
+        <v>90288</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123375</v>
+        <v>124212</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3388445919801609</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2808372631448063</v>
+        <v>0.2880610045984262</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3936215040564878</v>
+        <v>0.3962913416256919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -3612,19 +3612,19 @@
         <v>252078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226456</v>
+        <v>225381</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>281278</v>
+        <v>280007</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3372486476683315</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3029696697070688</v>
+        <v>0.3015311282999283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3763140862451938</v>
+        <v>0.3746138459872383</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>78312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62146</v>
+        <v>63777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95378</v>
+        <v>95851</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1804338068956843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1431868908313206</v>
+        <v>0.1469446528567643</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2197557322896926</v>
+        <v>0.2208438933844669</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -3662,19 +3662,19 @@
         <v>66490</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52884</v>
+        <v>51801</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83949</v>
+        <v>83096</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2121323298026769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1687236178865855</v>
+        <v>0.16526852075445</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2678338435654452</v>
+        <v>0.2651128986617423</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -3683,19 +3683,19 @@
         <v>144802</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>123696</v>
+        <v>123717</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>168934</v>
+        <v>168455</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1937261432197287</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1654891964564491</v>
+        <v>0.1655178829871445</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2260120856942728</v>
+        <v>0.2253720114570396</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>64126</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48986</v>
+        <v>49121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82999</v>
+        <v>83204</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1477487207744847</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1128650508465502</v>
+        <v>0.1131756645910661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1912328807962378</v>
+        <v>0.1917053110211764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -3733,19 +3733,19 @@
         <v>45733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33243</v>
+        <v>33343</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60786</v>
+        <v>59958</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1459103533114731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1060617620032505</v>
+        <v>0.1063797953000753</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1939358323915492</v>
+        <v>0.1912945527073676</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -3754,19 +3754,19 @@
         <v>109859</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89396</v>
+        <v>89256</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134881</v>
+        <v>132129</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1469778268537418</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1195999121361263</v>
+        <v>0.1194137375503973</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1804531662118325</v>
+        <v>0.1767724371871486</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>97955</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80691</v>
+        <v>80344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>120491</v>
+        <v>117095</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2367639563108524</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1950346518449753</v>
+        <v>0.1941950414703123</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2912335928913868</v>
+        <v>0.2830250930009126</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>74</v>
@@ -3879,19 +3879,19 @@
         <v>83342</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>67570</v>
+        <v>67891</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103489</v>
+        <v>101945</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2472510798094067</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2004591136719351</v>
+        <v>0.201412819697142</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3070193377019341</v>
+        <v>0.302439236218519</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>155</v>
@@ -3900,19 +3900,19 @@
         <v>181298</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>156195</v>
+        <v>157952</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>208088</v>
+        <v>210404</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2414722001480009</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2080368996825766</v>
+        <v>0.2103773236771692</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2771545503061804</v>
+        <v>0.2802383691858392</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>152608</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>131029</v>
+        <v>131278</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177192</v>
+        <v>175252</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3688624048450291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3167054355341287</v>
+        <v>0.3173071305542985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4282845038562097</v>
+        <v>0.4235946232635788</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -3950,19 +3950,19 @@
         <v>94641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78281</v>
+        <v>76869</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>112042</v>
+        <v>111679</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2807719578628976</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2322354779682783</v>
+        <v>0.2280478801081436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3323944847666619</v>
+        <v>0.3313162283904964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -3971,19 +3971,19 @@
         <v>247249</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220076</v>
+        <v>220504</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>274823</v>
+        <v>275243</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3293137808422263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2931207467727643</v>
+        <v>0.2936915384647205</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3660397854883614</v>
+        <v>0.3665986710445133</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>105915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89225</v>
+        <v>88195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>126481</v>
+        <v>126137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2560026138364951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2156609851173988</v>
+        <v>0.2131723675699194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.305711883973226</v>
+        <v>0.304881590185799</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>91</v>
@@ -4021,19 +4021,19 @@
         <v>100491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83384</v>
+        <v>82791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118767</v>
+        <v>117304</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2981241809058175</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2473733236728224</v>
+        <v>0.245614922721893</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.352343579915453</v>
+        <v>0.3480043218642781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>191</v>
@@ -4042,19 +4042,19 @@
         <v>206405</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180775</v>
+        <v>181501</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>234772</v>
+        <v>232701</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2749132911630772</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2407756992608642</v>
+        <v>0.2417432370759819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3126948669733187</v>
+        <v>0.3099370793896199</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>57248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43609</v>
+        <v>42860</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73933</v>
+        <v>73280</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1383710250076234</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1054043743978836</v>
+        <v>0.103595353540888</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1787001622061217</v>
+        <v>0.1771224295598295</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -4092,19 +4092,19 @@
         <v>58602</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45622</v>
+        <v>46168</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75360</v>
+        <v>75734</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1738527814218782</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1353449085200338</v>
+        <v>0.1369666431693924</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2235688367393792</v>
+        <v>0.2246787195313346</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -4113,19 +4113,19 @@
         <v>115849</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>96791</v>
+        <v>95591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>139926</v>
+        <v>138297</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1543007278466956</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1289174043303582</v>
+        <v>0.1273179074147942</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1863686526135478</v>
+        <v>0.18419925161865</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>78393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63115</v>
+        <v>60764</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>96930</v>
+        <v>97052</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1247522881234462</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1004393526108804</v>
+        <v>0.09669775447739122</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1542513670244733</v>
+        <v>0.1544443203225582</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>30</v>
@@ -4238,19 +4238,19 @@
         <v>32176</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22277</v>
+        <v>22344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44804</v>
+        <v>43994</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.124585864444209</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08625718001943326</v>
+        <v>0.08651547326482689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1734815014240745</v>
+        <v>0.1703451666350325</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -4259,19 +4259,19 @@
         <v>110569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>91004</v>
+        <v>91586</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133139</v>
+        <v>132896</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1247038126076804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1026376219729821</v>
+        <v>0.1032938086377004</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1501588565679299</v>
+        <v>0.1498839672703439</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>157306</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>136398</v>
+        <v>136536</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>180918</v>
+        <v>179862</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2503307776979926</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2170591338496195</v>
+        <v>0.217277901723286</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.287905391621888</v>
+        <v>0.286225785866861</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>69</v>
@@ -4309,19 +4309,19 @@
         <v>72941</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>59996</v>
+        <v>58770</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>87906</v>
+        <v>87972</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2824287167174805</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2323060983323166</v>
+        <v>0.2275592942805013</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3403731338634579</v>
+        <v>0.3406279995044263</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>217</v>
@@ -4330,19 +4330,19 @@
         <v>230247</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>204757</v>
+        <v>204048</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>258916</v>
+        <v>258502</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2596801933347576</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2309322807014969</v>
+        <v>0.230132563969738</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2920142001373689</v>
+        <v>0.2915467585937783</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>179954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156763</v>
+        <v>156809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>202883</v>
+        <v>205766</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2863723072249326</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2494658308264757</v>
+        <v>0.2495403139824445</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3228596661925005</v>
+        <v>0.327447827640047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -4380,19 +4380,19 @@
         <v>79045</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64482</v>
+        <v>65790</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93507</v>
+        <v>95359</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3060642368421351</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2496762258471951</v>
+        <v>0.2547419102274942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3620598032970421</v>
+        <v>0.3692317697842797</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>241</v>
@@ -4401,19 +4401,19 @@
         <v>258999</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>230525</v>
+        <v>230732</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287334</v>
+        <v>286844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2921081282871313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2599942394403805</v>
+        <v>0.260227075602592</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3240650776116042</v>
+        <v>0.3235126532811305</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>212739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>187433</v>
+        <v>189493</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>234368</v>
+        <v>238043</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3385446269536286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2982729230557913</v>
+        <v>0.3015512369422328</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3729637138484536</v>
+        <v>0.378812191430478</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -4451,19 +4451,19 @@
         <v>74101</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59359</v>
+        <v>59237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>90098</v>
+        <v>88612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2869211819961753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.229840318366543</v>
+        <v>0.2293661791936034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3488600041507705</v>
+        <v>0.34310907381766</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>271</v>
@@ -4472,19 +4472,19 @@
         <v>286840</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>258511</v>
+        <v>257049</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>320812</v>
+        <v>314666</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3235078657704307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2915567745019957</v>
+        <v>0.2899085421157448</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3618222956670832</v>
+        <v>0.35489061467783</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>98363</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79556</v>
+        <v>80507</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119386</v>
+        <v>119392</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08526989795187873</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06896671448164361</v>
+        <v>0.06979098437202415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1034947856721811</v>
+        <v>0.1034998656389425</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -4597,19 +4597,19 @@
         <v>77627</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62528</v>
+        <v>60243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97980</v>
+        <v>96077</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1015082269075344</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0817644792924581</v>
+        <v>0.07877594709011984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1281228006150305</v>
+        <v>0.125633961554</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -4618,19 +4618,19 @@
         <v>175990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149935</v>
+        <v>150957</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>202351</v>
+        <v>206111</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09174341225805811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07816094095308201</v>
+        <v>0.07869411219142458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1054856506423133</v>
+        <v>0.1074458593564031</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>244972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>214908</v>
+        <v>217621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>275666</v>
+        <v>274161</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2123640407694699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1863020789730336</v>
+        <v>0.1886535092392142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2389727755738691</v>
+        <v>0.2376682531488351</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>169</v>
@@ -4668,19 +4668,19 @@
         <v>179113</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>154776</v>
+        <v>156455</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202864</v>
+        <v>205472</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2342154989402191</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2023913993827126</v>
+        <v>0.2045875374054307</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2652738283368643</v>
+        <v>0.2686836556111355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>395</v>
@@ -4689,19 +4689,19 @@
         <v>424084</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>385520</v>
+        <v>387895</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>462921</v>
+        <v>463947</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.22107526514887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2009715597127505</v>
+        <v>0.2022097935995697</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2413207470998535</v>
+        <v>0.2418559053390376</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>368436</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>337736</v>
+        <v>336912</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>403103</v>
+        <v>403030</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3193943312746366</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2927804592650779</v>
+        <v>0.2920662373123152</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3494465011201986</v>
+        <v>0.3493837732304705</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>214</v>
@@ -4739,19 +4739,19 @@
         <v>229161</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>205279</v>
+        <v>204003</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>257150</v>
+        <v>255581</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2996603737095078</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.268430903588199</v>
+        <v>0.2667636337450952</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3362602347295444</v>
+        <v>0.3342085817000841</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>562</v>
@@ -4760,19 +4760,19 @@
         <v>597597</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>558014</v>
+        <v>555339</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>639416</v>
+        <v>639457</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3115272621344401</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2908929111152022</v>
+        <v>0.2894983123120881</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3333278653010723</v>
+        <v>0.333349214301122</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>441776</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>405942</v>
+        <v>407428</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>478490</v>
+        <v>477805</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3829717300040148</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.351907876262009</v>
+        <v>0.3531964073293106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.414799129440672</v>
+        <v>0.4142054199153265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>254</v>
@@ -4810,19 +4810,19 @@
         <v>278835</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>251789</v>
+        <v>254191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>306893</v>
+        <v>306402</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3646159004427387</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3292503971917325</v>
+        <v>0.332390573464008</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4013069769407963</v>
+        <v>0.4006636943072795</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>666</v>
@@ -4831,19 +4831,19 @@
         <v>720610</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>675953</v>
+        <v>680357</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>763007</v>
+        <v>765805</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3756540604586319</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3523743282674394</v>
+        <v>0.3546701884080988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3977559556395353</v>
+        <v>0.3992141837035894</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>36235</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26133</v>
+        <v>26023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>49460</v>
+        <v>48487</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07096652319539701</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05118038847478968</v>
+        <v>0.05096520853768086</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09686791453118614</v>
+        <v>0.09496200840207376</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -4956,19 +4956,19 @@
         <v>51921</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38778</v>
+        <v>38901</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>66967</v>
+        <v>69073</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06846396685406636</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05113301900663296</v>
+        <v>0.05129536358656912</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0883034833657973</v>
+        <v>0.09108071326360158</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -4977,19 +4977,19 @@
         <v>88156</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>70862</v>
+        <v>71476</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108201</v>
+        <v>108650</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0694709233355838</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05584190290073382</v>
+        <v>0.05632573016324201</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08526712329385981</v>
+        <v>0.0856204656539874</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>105332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89215</v>
+        <v>86096</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125297</v>
+        <v>123778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2062922637715059</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.174727351497894</v>
+        <v>0.1686177453168966</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2453945206588457</v>
+        <v>0.2424187795397855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -5027,19 +5027,19 @@
         <v>157155</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>134460</v>
+        <v>135896</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>178799</v>
+        <v>183081</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2072268812421897</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1773009538275092</v>
+        <v>0.1791946023782428</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2357671520421727</v>
+        <v>0.2414131227706199</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>249</v>
@@ -5048,19 +5048,19 @@
         <v>262487</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>232237</v>
+        <v>226325</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>293915</v>
+        <v>290019</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.20685081813252</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1830127644645467</v>
+        <v>0.178353763906728</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2316170572112435</v>
+        <v>0.2285473249833219</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>157975</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138371</v>
+        <v>136125</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179109</v>
+        <v>178822</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3093929519850711</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2709982553368789</v>
+        <v>0.2665995956466632</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3507849175656566</v>
+        <v>0.3502225335202798</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>217</v>
@@ -5098,19 +5098,19 @@
         <v>236437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>210730</v>
+        <v>210478</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>263288</v>
+        <v>264855</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3117694139373655</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2778714319702583</v>
+        <v>0.2775397235420741</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3471756706917903</v>
+        <v>0.3492410841349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>366</v>
@@ -5119,19 +5119,19 @@
         <v>394412</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>362816</v>
+        <v>361409</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>430093</v>
+        <v>430387</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3108131942006022</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2859142481103271</v>
+        <v>0.284805296439076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3389313471673585</v>
+        <v>0.3391627421890874</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>211054</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>187908</v>
+        <v>187620</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>234547</v>
+        <v>235559</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.413348261048026</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3680179205088542</v>
+        <v>0.3674524772268087</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4593588993482</v>
+        <v>0.4613415124415324</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>289</v>
@@ -5169,19 +5169,19 @@
         <v>312859</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>284946</v>
+        <v>287785</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>341825</v>
+        <v>339549</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4125397379663784</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.37573431956993</v>
+        <v>0.3794769977951232</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.450735426252872</v>
+        <v>0.4477338409912327</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>489</v>
@@ -5190,19 +5190,19 @@
         <v>523913</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>487936</v>
+        <v>488498</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>558644</v>
+        <v>561192</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.412865064331294</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3845141041992646</v>
+        <v>0.3849569533569629</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4402352025734959</v>
+        <v>0.4422431800703605</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>46366</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>34638</v>
+        <v>35893</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59210</v>
+        <v>61009</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1756316304915324</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1312080844850141</v>
+        <v>0.1359591517063133</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2242821651860139</v>
+        <v>0.231098442206574</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>105</v>
@@ -5315,19 +5315,19 @@
         <v>112663</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92616</v>
+        <v>93533</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>133551</v>
+        <v>133644</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1021741410772634</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08399346382443236</v>
+        <v>0.08482553625046534</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1211170529087481</v>
+        <v>0.1212017547284547</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>151</v>
@@ -5336,19 +5336,19 @@
         <v>159029</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>138544</v>
+        <v>136123</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>184722</v>
+        <v>183146</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1163639041439415</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1013748395115373</v>
+        <v>0.09960282575989834</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1351635081897045</v>
+        <v>0.134010879090265</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>78061</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65173</v>
+        <v>64364</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>95296</v>
+        <v>95044</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2956888270664739</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2468725468667257</v>
+        <v>0.2438068515683721</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3609734305084111</v>
+        <v>0.360022162135949</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>249</v>
@@ -5386,19 +5386,19 @@
         <v>262721</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>236059</v>
+        <v>232899</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>291728</v>
+        <v>293590</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2382618491572219</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2140817049256624</v>
+        <v>0.211216227875201</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2645682642039344</v>
+        <v>0.2662568573535812</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>327</v>
@@ -5407,19 +5407,19 @@
         <v>340782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>311666</v>
+        <v>310167</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>372162</v>
+        <v>374321</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2493550027167194</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2280508502575187</v>
+        <v>0.2269535719425191</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2723165301273002</v>
+        <v>0.2738961416853453</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>85527</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>70617</v>
+        <v>72081</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>101022</v>
+        <v>100125</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3239698006881375</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2674937602396134</v>
+        <v>0.2730378225279555</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3826665478472673</v>
+        <v>0.3792660402354814</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>361</v>
@@ -5457,19 +5457,19 @@
         <v>380460</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>350197</v>
+        <v>346718</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>415266</v>
+        <v>411000</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3450395959285036</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3175940197681229</v>
+        <v>0.3144384248735499</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3766051311024597</v>
+        <v>0.3727359334188592</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>446</v>
@@ -5478,19 +5478,19 @@
         <v>465987</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>432957</v>
+        <v>433212</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>502804</v>
+        <v>504435</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3409695493654075</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3168013371594198</v>
+        <v>0.3169873913760469</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3679087317408402</v>
+        <v>0.369102175270529</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>54043</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>43105</v>
+        <v>41640</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>69103</v>
+        <v>68051</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2047097417538562</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1632786353975282</v>
+        <v>0.1577291044579928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2617595870946345</v>
+        <v>0.2577746288877403</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>323</v>
@@ -5528,19 +5528,19 @@
         <v>346813</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>316113</v>
+        <v>317521</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>376440</v>
+        <v>382391</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3145244138370111</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2866833472659282</v>
+        <v>0.2879601782502858</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3413934174538994</v>
+        <v>0.3467903447324471</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>376</v>
@@ -5549,19 +5549,19 @@
         <v>400855</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>369341</v>
+        <v>369407</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>436259</v>
+        <v>436764</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2933115437739316</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2702519797247984</v>
+        <v>0.2703007890269043</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3192167750313726</v>
+        <v>0.3195862931677187</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>503023</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>464505</v>
+        <v>462519</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>549535</v>
+        <v>548386</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1477619662576023</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1364476044080652</v>
+        <v>0.1358642283059645</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1614248415502797</v>
+        <v>0.1610874204695613</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>412</v>
@@ -5674,19 +5674,19 @@
         <v>452736</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>412373</v>
+        <v>409867</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>497435</v>
+        <v>496215</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1280890184303527</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1166695960348972</v>
+        <v>0.1159605504314042</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1407355044172399</v>
+        <v>0.1403902625494333</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>873</v>
@@ -5695,19 +5695,19 @@
         <v>955758</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>900411</v>
+        <v>892443</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1019378</v>
+        <v>1012874</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1377408332755905</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1297644656731716</v>
+        <v>0.1286160176502976</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1469094944282935</v>
+        <v>0.1459722055920133</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>884151</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>829241</v>
+        <v>828799</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>935027</v>
+        <v>937999</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.259717655709812</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2435880940667257</v>
+        <v>0.2434582320421753</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2746626450819156</v>
+        <v>0.2755355271860214</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>818</v>
@@ -5745,19 +5745,19 @@
         <v>872777</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>814932</v>
+        <v>819566</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>924447</v>
+        <v>928295</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2469281894368125</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2305624082624352</v>
+        <v>0.2318736865549239</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2615468680342321</v>
+        <v>0.2626354238411296</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1647</v>
@@ -5766,19 +5766,19 @@
         <v>1756928</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1687729</v>
+        <v>1684045</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1829272</v>
+        <v>1828007</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2532028749349066</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2432301720785372</v>
+        <v>0.2426992871782684</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2636289583097462</v>
+        <v>0.2634465699283466</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>976118</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>916205</v>
+        <v>916216</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1034650</v>
+        <v>1031431</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2867330590848706</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.26913353849302</v>
+        <v>0.2691367976367388</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3039267317284196</v>
+        <v>0.3029808897858748</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1018</v>
@@ -5816,19 +5816,19 @@
         <v>1092084</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1038950</v>
+        <v>1042082</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1151062</v>
+        <v>1148366</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3089749174074936</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2939422816979464</v>
+        <v>0.2948282208246425</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3256612690403354</v>
+        <v>0.3248984975810744</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1941</v>
@@ -5837,19 +5837,19 @@
         <v>2068202</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1986658</v>
+        <v>1994704</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2149220</v>
+        <v>2144938</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2980627602549891</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2863109438577041</v>
+        <v>0.2874704758701306</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3097388537792689</v>
+        <v>0.3091216873462249</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>1040984</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>987427</v>
+        <v>986036</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1100647</v>
+        <v>1098622</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3057873189477151</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2900548276249327</v>
+        <v>0.2896463630252624</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3233130386969078</v>
+        <v>0.3227183498883955</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1028</v>
@@ -5887,19 +5887,19 @@
         <v>1116942</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1061245</v>
+        <v>1060667</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1179256</v>
+        <v>1173544</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3160078747253412</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3002501036714313</v>
+        <v>0.3000864971119479</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3336379316744418</v>
+        <v>0.3320220089124257</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2004</v>
@@ -5908,19 +5908,19 @@
         <v>2157926</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2077719</v>
+        <v>2076190</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2239604</v>
+        <v>2239192</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3109935315345138</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.29943426836649</v>
+        <v>0.2992139168151553</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3227647257893732</v>
+        <v>0.3227053038117288</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>144327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123725</v>
+        <v>125007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>164262</v>
+        <v>164056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3400749539216907</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2915306828862338</v>
+        <v>0.294551621090811</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3870450758858487</v>
+        <v>0.3865615876828922</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -6275,19 +6275,19 @@
         <v>108396</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91762</v>
+        <v>92552</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>127241</v>
+        <v>128264</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3123297225461173</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2644020276549365</v>
+        <v>0.2666773624847946</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3666300677753749</v>
+        <v>0.3695792111601293</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>228</v>
@@ -6296,19 +6296,19 @@
         <v>252723</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>226346</v>
+        <v>225466</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>280459</v>
+        <v>282271</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3275931740722724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2934022825102149</v>
+        <v>0.2922608950396881</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3635457951848057</v>
+        <v>0.3658950841428997</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>137735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118307</v>
+        <v>119147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158021</v>
+        <v>156917</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3245406519119337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.278763851217231</v>
+        <v>0.2807434482743688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3723396360337229</v>
+        <v>0.3697402879051016</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -6346,19 +6346,19 @@
         <v>127594</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110441</v>
+        <v>109068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146170</v>
+        <v>144816</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3676470409265831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3182243983125625</v>
+        <v>0.3142677582020908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4211737345224122</v>
+        <v>0.4172715992429369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -6367,19 +6367,19 @@
         <v>265328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>240639</v>
+        <v>238328</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>294072</v>
+        <v>292537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3439329738032525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.311929224596454</v>
+        <v>0.3089338652063952</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3811918875395687</v>
+        <v>0.3792019946004356</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>89636</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>73828</v>
+        <v>73603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108127</v>
+        <v>107658</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2112072807397989</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1739598500319462</v>
+        <v>0.1734295571172272</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2547775448193265</v>
+        <v>0.2536712949972637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -6417,19 +6417,19 @@
         <v>65693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52318</v>
+        <v>51779</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81302</v>
+        <v>81608</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1892868667754567</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1507497897309489</v>
+        <v>0.1491959787559528</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2342623286909662</v>
+        <v>0.2351432306914343</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>149</v>
@@ -6438,19 +6438,19 @@
         <v>155329</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>132685</v>
+        <v>133664</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>178955</v>
+        <v>178608</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2013459183453979</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1719938684297097</v>
+        <v>0.1732627486358995</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2319716603151757</v>
+        <v>0.2315210878493981</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>52701</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39902</v>
+        <v>40102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68649</v>
+        <v>66957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1241771134265767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09401988503943376</v>
+        <v>0.09449034313370766</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1617556791775987</v>
+        <v>0.1577697243115315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -6488,19 +6488,19 @@
         <v>45373</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33931</v>
+        <v>33314</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57857</v>
+        <v>58419</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1307363697518429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09776820392212071</v>
+        <v>0.09599110488723224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1667083104659605</v>
+        <v>0.1683271123864872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -6509,19 +6509,19 @@
         <v>98073</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79431</v>
+        <v>81563</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116608</v>
+        <v>118192</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1271279337790772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1029624131060268</v>
+        <v>0.1057268950284272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1511539499241247</v>
+        <v>0.153207255692844</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>78752</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63243</v>
+        <v>63135</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>95913</v>
+        <v>97034</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2097825920156285</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1684679199882858</v>
+        <v>0.1681816784672389</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2554948963081624</v>
+        <v>0.2584826863629809</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>54</v>
@@ -6634,19 +6634,19 @@
         <v>58562</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>43880</v>
+        <v>44496</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>75169</v>
+        <v>73982</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1580022125297872</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1183891402542392</v>
+        <v>0.1200505394144143</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2028057443092641</v>
+        <v>0.199605629096937</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>125</v>
@@ -6655,19 +6655,19 @@
         <v>137315</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>116942</v>
+        <v>116386</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>160588</v>
+        <v>159131</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1840574837113949</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1567492571424228</v>
+        <v>0.1560046636215234</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2152530666801625</v>
+        <v>0.2133003719907011</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>116050</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98251</v>
+        <v>99445</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134960</v>
+        <v>134596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.309136913923611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2617237429031336</v>
+        <v>0.2649052337371195</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3595104234690709</v>
+        <v>0.3585395508924326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -6705,19 +6705,19 @@
         <v>99183</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>82922</v>
+        <v>84289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117258</v>
+        <v>116424</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2675969397013189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2237252452183542</v>
+        <v>0.2274134965139335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3163646799159056</v>
+        <v>0.3141134337829322</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -6726,19 +6726,19 @@
         <v>215233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>190271</v>
+        <v>188288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>239997</v>
+        <v>242383</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2884993607338794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.255039686023958</v>
+        <v>0.2523821039911895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3216930592812297</v>
+        <v>0.3248915352645948</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>96455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80435</v>
+        <v>79979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113700</v>
+        <v>113662</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2569398174682124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2142659165824386</v>
+        <v>0.2130489092121054</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3028756797312246</v>
+        <v>0.3027766656728783</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -6776,19 +6776,19 @@
         <v>118952</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100145</v>
+        <v>100297</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>136594</v>
+        <v>136282</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3209337612472163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2701919608520227</v>
+        <v>0.2706027751909613</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3685312315368228</v>
+        <v>0.3676918157333993</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -6797,19 +6797,19 @@
         <v>215407</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>189736</v>
+        <v>190151</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>240448</v>
+        <v>243398</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2887327697577965</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2543226272352251</v>
+        <v>0.2548788996966692</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3222984113921926</v>
+        <v>0.3262524838627192</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>84142</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69817</v>
+        <v>66896</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102506</v>
+        <v>101970</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2241406765925482</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1859811659627595</v>
+        <v>0.1781995999776224</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2730588380445834</v>
+        <v>0.2716314101022867</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -6847,19 +6847,19 @@
         <v>93946</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77064</v>
+        <v>78911</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>112129</v>
+        <v>111445</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2534670865216776</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.207919952301536</v>
+        <v>0.2129041123143606</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3025267127498305</v>
+        <v>0.3006814510082949</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>167</v>
@@ -6868,19 +6868,19 @@
         <v>178088</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>154952</v>
+        <v>155972</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>202865</v>
+        <v>202054</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2387103857969292</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2076980895968897</v>
+        <v>0.2090656550582445</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2719214283441174</v>
+        <v>0.270833890601142</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>52042</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39803</v>
+        <v>39485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67335</v>
+        <v>66422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.100506074986997</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07686965298296292</v>
+        <v>0.07625505656282067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.130041666598933</v>
+        <v>0.1282789418801341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -6993,19 +6993,19 @@
         <v>24445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15990</v>
+        <v>15481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34343</v>
+        <v>35139</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.149818142734657</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0979969326366114</v>
+        <v>0.0948786590269349</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.210484464638053</v>
+        <v>0.2153591523647619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>74</v>
@@ -7014,19 +7014,19 @@
         <v>76487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>62382</v>
+        <v>61866</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95805</v>
+        <v>93426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1123217086189272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0916087165076525</v>
+        <v>0.0908510243126389</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.140691336021223</v>
+        <v>0.1371978785286734</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>132499</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>113548</v>
+        <v>111947</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>154664</v>
+        <v>154822</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2558907816440082</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2192908767473193</v>
+        <v>0.2161998045403318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2986969855863527</v>
+        <v>0.2990016408839564</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -7064,19 +7064,19 @@
         <v>34574</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24701</v>
+        <v>24941</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47745</v>
+        <v>46248</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2118960092991189</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1513901476711622</v>
+        <v>0.1528556838955283</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2926209652577925</v>
+        <v>0.2834450302815911</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>158</v>
@@ -7085,19 +7085,19 @@
         <v>167073</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>144798</v>
+        <v>146406</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>189082</v>
+        <v>191229</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2453492218293307</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.212638481526604</v>
+        <v>0.2149997365510367</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2776692072728276</v>
+        <v>0.2808228604946504</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>140364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120527</v>
+        <v>121292</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162574</v>
+        <v>161066</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.271079142952776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2327685830794442</v>
+        <v>0.2342458573799024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3139737685104338</v>
+        <v>0.3110612568109506</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -7135,19 +7135,19 @@
         <v>49496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36898</v>
+        <v>38502</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61647</v>
+        <v>63363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3033539339358254</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2261429149171413</v>
+        <v>0.2359726898605491</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3778242868028597</v>
+        <v>0.3883407788970524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -7156,19 +7156,19 @@
         <v>189860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>166690</v>
+        <v>167955</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>212115</v>
+        <v>215792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2788124853823465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2447861622104618</v>
+        <v>0.2466449700830119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.311494673299754</v>
+        <v>0.3168940873004721</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>192891</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168504</v>
+        <v>170128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>216972</v>
+        <v>216091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3725240004162189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.325425911760097</v>
+        <v>0.328561162469291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4190297724981521</v>
+        <v>0.417327660433912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -7206,19 +7206,19 @@
         <v>54649</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42075</v>
+        <v>42619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>67302</v>
+        <v>67123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3349319140303987</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2578701928631578</v>
+        <v>0.2612059765594054</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4124792426485883</v>
+        <v>0.4113854599204724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>231</v>
@@ -7227,19 +7227,19 @@
         <v>247540</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>223505</v>
+        <v>224307</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>273422</v>
+        <v>272459</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3635165841693955</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3282202878551904</v>
+        <v>0.3293984325348105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4015248065729502</v>
+        <v>0.4001097318850644</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>123845</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103388</v>
+        <v>101180</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146327</v>
+        <v>143598</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1084924681063976</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09057176357420173</v>
+        <v>0.08863750139413033</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1281877814873629</v>
+        <v>0.1257968651975649</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -7352,19 +7352,19 @@
         <v>97105</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80233</v>
+        <v>78987</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117350</v>
+        <v>116843</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1183001670302687</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0977460579191925</v>
+        <v>0.09622794069286872</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1429640392595083</v>
+        <v>0.1423467421446115</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>211</v>
@@ -7373,19 +7373,19 @@
         <v>220950</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>191940</v>
+        <v>195472</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>248601</v>
+        <v>250627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1125949633413438</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0978117790002518</v>
+        <v>0.09961170976603691</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1266856628392061</v>
+        <v>0.1277181274039672</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>251289</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225573</v>
+        <v>221894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279414</v>
+        <v>276715</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.220137836800379</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1976097169980115</v>
+        <v>0.1943865813541177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2447760586542526</v>
+        <v>0.2424114537540297</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -7423,19 +7423,19 @@
         <v>172329</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>148797</v>
+        <v>150774</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>196314</v>
+        <v>195999</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2099432818186724</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1812755415505165</v>
+        <v>0.1836833196501828</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2391633992915629</v>
+        <v>0.2387796016798187</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>411</v>
@@ -7444,19 +7444,19 @@
         <v>423618</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>390578</v>
+        <v>388311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>460834</v>
+        <v>463250</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2158735222491794</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1990363291107163</v>
+        <v>0.1978814544695275</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2348387934325</v>
+        <v>0.236070053893651</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>325364</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>294359</v>
+        <v>294336</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>355474</v>
+        <v>357038</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2850300396085716</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2578681661659916</v>
+        <v>0.2578487501050796</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3114073707605843</v>
+        <v>0.3127772741504012</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>227</v>
@@ -7494,19 +7494,19 @@
         <v>235133</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>209944</v>
+        <v>209408</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>262850</v>
+        <v>261038</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2864557293904857</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2557685998203982</v>
+        <v>0.2551161926497991</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3202221028841225</v>
+        <v>0.3180149511253451</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>541</v>
@@ -7515,19 +7515,19 @@
         <v>560497</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>521806</v>
+        <v>520754</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>603445</v>
+        <v>602663</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2856263961629698</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2659099237817808</v>
+        <v>0.2653734761346543</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3075123614108756</v>
+        <v>0.3071142229737095</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>441010</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>408655</v>
+        <v>411528</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>474392</v>
+        <v>477523</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3863396554846518</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3579956758066868</v>
+        <v>0.3605125646069511</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4155836088592502</v>
+        <v>0.4183268492506981</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>306</v>
@@ -7565,19 +7565,19 @@
         <v>316268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>287681</v>
+        <v>290691</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>344489</v>
+        <v>345060</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3853008217605732</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3504739422399167</v>
+        <v>0.3541406551832013</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4196815952022714</v>
+        <v>0.4203765830415894</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>726</v>
@@ -7586,19 +7586,19 @@
         <v>757278</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>715529</v>
+        <v>712852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>801421</v>
+        <v>800871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.385905118246507</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3646297389725155</v>
+        <v>0.3632659864670563</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4083998692972527</v>
+        <v>0.4081200253902098</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>51164</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>38525</v>
+        <v>37989</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66567</v>
+        <v>65580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08320880849889332</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06265437902214063</v>
+        <v>0.06178172189711827</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1082594835235298</v>
+        <v>0.1066530236914063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -7711,19 +7711,19 @@
         <v>57495</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>44783</v>
+        <v>43741</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>73261</v>
+        <v>74536</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0779779563539186</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06073760457945086</v>
+        <v>0.05932402484281582</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09936187429663444</v>
+        <v>0.1010901583349453</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -7732,19 +7732,19 @@
         <v>108659</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>89111</v>
+        <v>90070</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>130341</v>
+        <v>130821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08035657434595539</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0659007515464019</v>
+        <v>0.0666098964926464</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09639154275644929</v>
+        <v>0.09674602772107876</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>109119</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91149</v>
+        <v>89828</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129217</v>
+        <v>129112</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1774617539686763</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1482364937322441</v>
+        <v>0.146087911809488</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2101472137009965</v>
+        <v>0.2099763584105874</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -7782,19 +7782,19 @@
         <v>97171</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79281</v>
+        <v>78503</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>116504</v>
+        <v>116975</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1317890272162129</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1075261616531521</v>
+        <v>0.1064704673103799</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.158010419571215</v>
+        <v>0.1586493577058558</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>197</v>
@@ -7803,19 +7803,19 @@
         <v>206290</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>182399</v>
+        <v>179950</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>235465</v>
+        <v>235729</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1525577216063148</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1348901929996902</v>
+        <v>0.1330790578799456</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1741338922427762</v>
+        <v>0.174328891373071</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>162400</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>141587</v>
+        <v>140238</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>185260</v>
+        <v>184393</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2641141247309685</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2302643748407137</v>
+        <v>0.2280705069639627</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3012917772511871</v>
+        <v>0.2998818740232467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>182</v>
@@ -7853,19 +7853,19 @@
         <v>190413</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>165282</v>
+        <v>166980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>214327</v>
+        <v>218396</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.258249497678074</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2241657964584688</v>
+        <v>0.2264686213091294</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2906839948162689</v>
+        <v>0.2962023559844151</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>343</v>
@@ -7874,19 +7874,19 @@
         <v>352813</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>317649</v>
+        <v>320730</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>381722</v>
+        <v>387070</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2609163112369321</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2349113606624247</v>
+        <v>0.2371900390605725</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2822955175049458</v>
+        <v>0.2862504975297033</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>292204</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>268729</v>
+        <v>268709</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>316403</v>
+        <v>318263</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4752153128014618</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4370374147230042</v>
+        <v>0.4370056009556021</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5145706428924375</v>
+        <v>0.517595774071431</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>372</v>
@@ -7924,19 +7924,19 @@
         <v>392242</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>365380</v>
+        <v>363819</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>417818</v>
+        <v>420081</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5319835187517944</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4955520555656035</v>
+        <v>0.4934348631307693</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5666708388898201</v>
+        <v>0.5697402547513311</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>648</v>
@@ -7945,19 +7945,19 @@
         <v>684446</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>650267</v>
+        <v>645036</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>724319</v>
+        <v>719198</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5061693928107976</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.480893139443109</v>
+        <v>0.4770245884638569</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5356568219381879</v>
+        <v>0.5318699036113254</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>55485</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>43120</v>
+        <v>43157</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>70269</v>
+        <v>69566</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1949132985963108</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1514758446463284</v>
+        <v>0.1516081650811978</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2468501031910627</v>
+        <v>0.2443800779390389</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>134</v>
@@ -8070,19 +8070,19 @@
         <v>143695</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>120016</v>
+        <v>121835</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>165148</v>
+        <v>167371</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1336910040951818</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1116605782824244</v>
+        <v>0.1133524539902654</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1536505489569664</v>
+        <v>0.1557184291480219</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>186</v>
@@ -8091,19 +8091,19 @@
         <v>199180</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>173619</v>
+        <v>175145</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>224636</v>
+        <v>228518</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1465103312848958</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.127708828515114</v>
+        <v>0.1288311965838668</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1652354084401448</v>
+        <v>0.1680909139244519</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>73550</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>60671</v>
+        <v>60211</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90795</v>
+        <v>89414</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2583745159869639</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2131335652962073</v>
+        <v>0.2115145633829753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3189558097722154</v>
+        <v>0.314103024986976</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>211</v>
@@ -8141,19 +8141,19 @@
         <v>232536</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>205739</v>
+        <v>202878</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>262028</v>
+        <v>262559</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2163471710085232</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.19141519486699</v>
+        <v>0.1887539294348425</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2437855476670079</v>
+        <v>0.2442796490384386</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>281</v>
@@ -8162,19 +8162,19 @@
         <v>306086</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>276476</v>
+        <v>272658</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>339241</v>
+        <v>338558</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2251472705569595</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.203367128049736</v>
+        <v>0.2005585201900292</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2495348366388619</v>
+        <v>0.2490328534914812</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>91712</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>76862</v>
+        <v>76100</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>107695</v>
+        <v>106883</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3221769454414039</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2700107856290537</v>
+        <v>0.2673314528691773</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3783216100754643</v>
+        <v>0.3754723377690101</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>315</v>
@@ -8212,19 +8212,19 @@
         <v>343754</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>312958</v>
+        <v>314339</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>375368</v>
+        <v>378628</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.319821650065315</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2911702375641223</v>
+        <v>0.2924551983122075</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3492353843825751</v>
+        <v>0.3522682823690478</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>403</v>
@@ -8233,19 +8233,19 @@
         <v>435466</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>400260</v>
+        <v>398594</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>467221</v>
+        <v>473165</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3203148250157237</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2944188939566478</v>
+        <v>0.2931930777399316</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3436727076201567</v>
+        <v>0.3480452934685153</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>63917</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>50611</v>
+        <v>50637</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79765</v>
+        <v>78929</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2245352399753213</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1777905407853905</v>
+        <v>0.1778829213455485</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2802074959724226</v>
+        <v>0.2772710061347819</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>325</v>
@@ -8283,19 +8283,19 @@
         <v>354844</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>321349</v>
+        <v>323579</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>385818</v>
+        <v>384926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.33014017483098</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2989772540292868</v>
+        <v>0.3010515926743602</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3589577226457871</v>
+        <v>0.3581276932919878</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>385</v>
@@ -8304,19 +8304,19 @@
         <v>418761</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>384074</v>
+        <v>384040</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>453892</v>
+        <v>458184</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.308027573142421</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2825129884641211</v>
+        <v>0.2824875928346857</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3338686459639725</v>
+        <v>0.3370259913646063</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>505615</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>459438</v>
+        <v>466914</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>546947</v>
+        <v>547884</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1505410641286057</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1367923316697041</v>
+        <v>0.1390181490482587</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1628470686698837</v>
+        <v>0.1631259403436461</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>455</v>
@@ -8429,19 +8429,19 @@
         <v>489698</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>447242</v>
+        <v>448403</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>535397</v>
+        <v>533903</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1393622637067322</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1272798832989431</v>
+        <v>0.1276103073470011</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1523678719031244</v>
+        <v>0.151942572358613</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>925</v>
@@ -8450,19 +8450,19 @@
         <v>995313</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>941522</v>
+        <v>936753</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1054215</v>
+        <v>1061082</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1448254462401299</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1369984900654959</v>
+        <v>0.1363045497438513</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1533962029050114</v>
+        <v>0.1543953692913595</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>820242</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>768607</v>
+        <v>769574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>872705</v>
+        <v>871826</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2442174387609528</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.228843841617666</v>
+        <v>0.2291317448246576</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.259837736023677</v>
+        <v>0.2595761478128157</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>721</v>
@@ -8500,19 +8500,19 @@
         <v>763386</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>719580</v>
+        <v>710028</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>814564</v>
+        <v>810130</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2172508886033082</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.204784186280144</v>
+        <v>0.2020658081029268</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2318153887146545</v>
+        <v>0.230553621125603</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1505</v>
@@ -8521,19 +8521,19 @@
         <v>1583628</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1512553</v>
+        <v>1508087</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1653241</v>
+        <v>1651945</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2304296895700891</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2200877634483085</v>
+        <v>0.2194379205470889</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2405589094759043</v>
+        <v>0.2403703141306538</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>905932</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>858160</v>
+        <v>858863</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>958213</v>
+        <v>958970</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2697305662332224</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2555069707322103</v>
+        <v>0.2557165103632544</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2852965986746698</v>
+        <v>0.2855220811773255</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>948</v>
@@ -8571,19 +8571,19 @@
         <v>1003440</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>951746</v>
+        <v>945679</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1063262</v>
+        <v>1061513</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2855675062885841</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2708558337255169</v>
+        <v>0.2691293171777318</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3025921913135564</v>
+        <v>0.3020942182541499</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1827</v>
@@ -8592,19 +8592,19 @@
         <v>1909372</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1826899</v>
+        <v>1836256</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1983363</v>
+        <v>1997964</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2778278480938081</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2658274655442734</v>
+        <v>0.2671889530780373</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2885940429970686</v>
+        <v>0.2907186673225909</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>1126865</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1066981</v>
+        <v>1071498</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1179398</v>
+        <v>1183087</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3355109308772191</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3176812034157074</v>
+        <v>0.3190259527340346</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3511520358687707</v>
+        <v>0.3522502094293652</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1186</v>
@@ -8642,19 +8642,19 @@
         <v>1257322</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1203326</v>
+        <v>1202626</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1317338</v>
+        <v>1320067</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3578193414013755</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.342452785817726</v>
+        <v>0.3422534038551592</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3748992037559185</v>
+        <v>0.3756759513317973</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2251</v>
@@ -8663,19 +8663,19 @@
         <v>2384187</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2305775</v>
+        <v>2299019</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2459554</v>
+        <v>2463596</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3469170160959729</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3355075283215056</v>
+        <v>0.3345243866303561</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3578833876512086</v>
+        <v>0.3584715381678678</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>278809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>254762</v>
+        <v>255886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>303226</v>
+        <v>301113</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5082596048444681</v>
+        <v>0.5082596048444682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4644219409701775</v>
+        <v>0.4664714334028917</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5527699650521437</v>
+        <v>0.5489184355073847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>348</v>
@@ -9030,19 +9030,19 @@
         <v>240833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221807</v>
+        <v>222619</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>259507</v>
+        <v>260558</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4954602873453287</v>
+        <v>0.4954602873453285</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4563196241105832</v>
+        <v>0.4579902214820021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5338773447131883</v>
+        <v>0.5360409576037135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>640</v>
@@ -9051,19 +9051,19 @@
         <v>519643</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>486995</v>
+        <v>487203</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>548443</v>
+        <v>549811</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5022463979168537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4706921259867412</v>
+        <v>0.4708930603050644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5300826361544856</v>
+        <v>0.5314049505440195</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>174066</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>151783</v>
+        <v>152906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197519</v>
+        <v>196512</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3173166966763337</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2766942056984786</v>
+        <v>0.2787421102030341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3600695850937496</v>
+        <v>0.3582338569351252</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>236</v>
@@ -9101,19 +9101,19 @@
         <v>167644</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>150093</v>
+        <v>149523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>187213</v>
+        <v>184604</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3448911631716907</v>
+        <v>0.3448911631716908</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3087828058688453</v>
+        <v>0.3076107105189126</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3851491201846806</v>
+        <v>0.3797811131673995</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>413</v>
@@ -9122,19 +9122,19 @@
         <v>341711</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>314259</v>
+        <v>314805</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370601</v>
+        <v>372395</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3302713696865389</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3037387872756538</v>
+        <v>0.3042658283786575</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3581946118045621</v>
+        <v>0.3599281014040712</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>66868</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49763</v>
+        <v>50049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87034</v>
+        <v>84570</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1218973008627785</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09071660930599516</v>
+        <v>0.09123812474460086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1586596202296775</v>
+        <v>0.1541682384686894</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>73</v>
@@ -9172,19 +9172,19 @@
         <v>59306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47414</v>
+        <v>47369</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73360</v>
+        <v>74392</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1220083581636299</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09754332855210378</v>
+        <v>0.09745193684075724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1509224233338795</v>
+        <v>0.1530441494721928</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>130</v>
@@ -9193,19 +9193,19 @@
         <v>126173</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106673</v>
+        <v>104689</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>148565</v>
+        <v>151898</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1219494763425169</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.103101429376125</v>
+        <v>0.1011838473711302</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1435918969834644</v>
+        <v>0.1468129287765635</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>28814</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19476</v>
+        <v>18781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42162</v>
+        <v>41990</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05252639761641976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03550474982883468</v>
+        <v>0.03423677480738069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07686021992315209</v>
+        <v>0.07654574244387533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -9243,19 +9243,19 @@
         <v>18296</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11203</v>
+        <v>12293</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26429</v>
+        <v>27833</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03764019131935079</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02304723037758536</v>
+        <v>0.02529113285197559</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05437126563565781</v>
+        <v>0.05726009768441712</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -9264,19 +9264,19 @@
         <v>47110</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34112</v>
+        <v>36388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60961</v>
+        <v>64191</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04553275605409043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03296998881965588</v>
+        <v>0.03516954754704507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05892013145907925</v>
+        <v>0.06204192812329099</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>177231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>154885</v>
+        <v>156554</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197865</v>
+        <v>199207</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3676998925979966</v>
+        <v>0.3676998925979965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3213397012080805</v>
+        <v>0.3248022361255987</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.410510342800241</v>
+        <v>0.4132948764684505</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>226</v>
@@ -9389,19 +9389,19 @@
         <v>157243</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>138972</v>
+        <v>140717</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>173333</v>
+        <v>176336</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3737695999656177</v>
+        <v>0.3737695999656178</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3303401071134972</v>
+        <v>0.3344869403151168</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4120170384790218</v>
+        <v>0.4191556395093217</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>408</v>
@@ -9410,19 +9410,19 @@
         <v>334473</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>307249</v>
+        <v>304185</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>361585</v>
+        <v>361060</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3705286428845315</v>
+        <v>0.3705286428845314</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3403699434516327</v>
+        <v>0.3369760976070611</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4005635612697322</v>
+        <v>0.3999815878231766</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>178305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156116</v>
+        <v>156218</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202773</v>
+        <v>200637</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3699297958964439</v>
+        <v>0.3699297958964438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3238928970003745</v>
+        <v>0.3241055615867779</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4206919901102141</v>
+        <v>0.4162617385226994</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -9460,19 +9460,19 @@
         <v>149450</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>132529</v>
+        <v>132100</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167256</v>
+        <v>167478</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3552452215095851</v>
+        <v>0.3552452215095852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3150257077123647</v>
+        <v>0.3140050202830664</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3975705180130999</v>
+        <v>0.3980993342249667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>384</v>
@@ -9481,19 +9481,19 @@
         <v>327755</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301790</v>
+        <v>300321</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>358931</v>
+        <v>355803</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3630861391122537</v>
+        <v>0.3630861391122536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3343229545826197</v>
+        <v>0.3326954200968052</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3976236308228388</v>
+        <v>0.3941576809198773</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>108556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89164</v>
+        <v>90142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127435</v>
+        <v>127560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2252217870279488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1849872921239357</v>
+        <v>0.1870174779975101</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2643880462759381</v>
+        <v>0.2646487032381599</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -9531,19 +9531,19 @@
         <v>85760</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72713</v>
+        <v>72325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>101583</v>
+        <v>100946</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2038533318361255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1728402800681013</v>
+        <v>0.1719175317168871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2414651430266796</v>
+        <v>0.2399521580904133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>218</v>
@@ -9552,19 +9552,19 @@
         <v>194316</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>169274</v>
+        <v>170620</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218046</v>
+        <v>220024</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2152631481536717</v>
+        <v>0.2152631481536716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1875217985010413</v>
+        <v>0.1890121049801562</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2415515725784775</v>
+        <v>0.2437420863692744</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>17906</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11176</v>
+        <v>10985</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29839</v>
+        <v>27810</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03714852447761085</v>
+        <v>0.03714852447761084</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02318713993350344</v>
+        <v>0.02279004708540928</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06190587365402613</v>
+        <v>0.0576966919934031</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>39</v>
@@ -9602,19 +9602,19 @@
         <v>28242</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20726</v>
+        <v>20357</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38729</v>
+        <v>38148</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.0671318466886716</v>
+        <v>0.06713184668867161</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04926718905910833</v>
+        <v>0.04838802156993698</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09205985017274014</v>
+        <v>0.09067834734211697</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -9623,19 +9623,19 @@
         <v>46147</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35470</v>
+        <v>36044</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61230</v>
+        <v>59805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05112206984954323</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03929414610649067</v>
+        <v>0.03992896562052421</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06783061510746853</v>
+        <v>0.06625139492514215</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>103602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86548</v>
+        <v>86921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123676</v>
+        <v>123101</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2201462461557458</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.183906993924123</v>
+        <v>0.184699995516087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2628016826225018</v>
+        <v>0.2615805998052019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -9748,19 +9748,19 @@
         <v>40684</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32412</v>
+        <v>31895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51402</v>
+        <v>51221</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2183710481161797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1739690114910459</v>
+        <v>0.1711967584104782</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2758954731778591</v>
+        <v>0.2749245454086616</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -9769,19 +9769,19 @@
         <v>144287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122913</v>
+        <v>123943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>164362</v>
+        <v>166118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2196427790782969</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1871063109430429</v>
+        <v>0.1886748184229947</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.250202452135896</v>
+        <v>0.2528756516011316</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>167806</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>148342</v>
+        <v>146553</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>189538</v>
+        <v>189783</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3565748196740944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3152155686393759</v>
+        <v>0.3114139360925201</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4027527634520964</v>
+        <v>0.4032746546843227</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>98</v>
@@ -9819,19 +9819,19 @@
         <v>63428</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54339</v>
+        <v>52855</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>76219</v>
+        <v>74019</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3404459353038701</v>
+        <v>0.3404459353038702</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2916580046111106</v>
+        <v>0.283697243746969</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4090983667840751</v>
+        <v>0.3972929983030358</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>274</v>
@@ -9840,19 +9840,19 @@
         <v>231234</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>207815</v>
+        <v>207367</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>255533</v>
+        <v>254721</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.3520004780539482</v>
+        <v>0.3520004780539483</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3163505805730982</v>
+        <v>0.3156680009001856</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3889893698198661</v>
+        <v>0.3877535636961001</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>135844</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116984</v>
+        <v>117769</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>156161</v>
+        <v>156340</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2886583237090388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.248581127137794</v>
+        <v>0.2502504304147974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3318287311810313</v>
+        <v>0.3322107092461236</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -9890,19 +9890,19 @@
         <v>59812</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49105</v>
+        <v>50272</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70042</v>
+        <v>70342</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3210343336261017</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2635652976796671</v>
+        <v>0.2698321514411309</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.375943450675587</v>
+        <v>0.377554040384391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -9911,19 +9911,19 @@
         <v>195656</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>173319</v>
+        <v>172920</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>219370</v>
+        <v>220187</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.297840541540006</v>
+        <v>0.2978405415400061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2638375491287421</v>
+        <v>0.2632310570527814</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3339402107090855</v>
+        <v>0.3351832060477102</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>63353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50374</v>
+        <v>48593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79103</v>
+        <v>78856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1346206104611212</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1070407037947241</v>
+        <v>0.1032567345232115</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1680876038788555</v>
+        <v>0.1675627591033317</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -9961,19 +9961,19 @@
         <v>22385</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16287</v>
+        <v>15874</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30818</v>
+        <v>30380</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1201486829538484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08742045499858425</v>
+        <v>0.0852018730557204</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1654110920689154</v>
+        <v>0.1630645285976926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -9982,19 +9982,19 @@
         <v>85738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70453</v>
+        <v>71910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103378</v>
+        <v>104349</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1305162013277489</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1072485194908382</v>
+        <v>0.1094661652029845</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1573682274028476</v>
+        <v>0.1588475180139104</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>240501</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>211702</v>
+        <v>207741</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>272832</v>
+        <v>267933</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2147434621509018</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1890285031704662</v>
+        <v>0.1854921580779652</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2436114702497755</v>
+        <v>0.2392374805688359</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>269</v>
@@ -10107,19 +10107,19 @@
         <v>184283</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>163782</v>
+        <v>165632</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>207230</v>
+        <v>208656</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2154196984558614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1914548842523233</v>
+        <v>0.1936173756325096</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2422447730442209</v>
+        <v>0.2439115067084719</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>502</v>
@@ -10128,19 +10128,19 @@
         <v>424784</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>387445</v>
+        <v>388596</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>464092</v>
+        <v>461617</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2150363097440333</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1961344336866905</v>
+        <v>0.1967170637067986</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2349352528449188</v>
+        <v>0.233682177950881</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>320765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>289726</v>
+        <v>291155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>350716</v>
+        <v>354285</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2864107847174286</v>
+        <v>0.2864107847174285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2586964199343841</v>
+        <v>0.2599727081337001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3131540629735397</v>
+        <v>0.3163413684287566</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>386</v>
@@ -10178,19 +10178,19 @@
         <v>262619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240204</v>
+        <v>238786</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>285197</v>
+        <v>286261</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.306992098415794</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2807892163048559</v>
+        <v>0.2791317297966993</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3333851565190637</v>
+        <v>0.3346290046267655</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>724</v>
@@ -10199,19 +10199,19 @@
         <v>583384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>544558</v>
+        <v>541635</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>624429</v>
+        <v>621755</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2953236279585358</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2756691521534507</v>
+        <v>0.2741895011436087</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.316101920115036</v>
+        <v>0.3147482907953565</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>384201</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>347954</v>
+        <v>350940</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>420438</v>
+        <v>423107</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3430528198676019</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3106885825228837</v>
+        <v>0.3133544495200502</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3754087424077611</v>
+        <v>0.3777924502539913</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>366</v>
@@ -10249,19 +10249,19 @@
         <v>266971</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>244150</v>
+        <v>241335</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>291318</v>
+        <v>289689</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.312079757525193</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2854022892738862</v>
+        <v>0.2821120990955513</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.340540492698007</v>
+        <v>0.3386359609079887</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>742</v>
@@ -10270,19 +10270,19 @@
         <v>651172</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>608604</v>
+        <v>611434</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>691067</v>
+        <v>695576</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3296397766867453</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3080908710087987</v>
+        <v>0.3095231143489862</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3498357557445537</v>
+        <v>0.3521181336609041</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>174480</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>149998</v>
+        <v>147876</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>203621</v>
+        <v>202192</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1557929332640678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1339333297219563</v>
+        <v>0.1320385801418353</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1818136554493929</v>
+        <v>0.1805374279638193</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>201</v>
@@ -10320,19 +10320,19 @@
         <v>141586</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>124737</v>
+        <v>122595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>161115</v>
+        <v>160207</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1655084456031516</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1458132192108587</v>
+        <v>0.1433089162001293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1883374262061522</v>
+        <v>0.1872757595543384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>363</v>
@@ -10341,19 +10341,19 @@
         <v>316065</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>283567</v>
+        <v>283015</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>349397</v>
+        <v>348195</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1600002856106857</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1435489093399314</v>
+        <v>0.1432694291043538</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1768738266841169</v>
+        <v>0.1762648792155043</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>78640</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61861</v>
+        <v>60797</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>102321</v>
+        <v>100716</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1416199353874944</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1114034705948651</v>
+        <v>0.1094877344117774</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1842664041263314</v>
+        <v>0.1813770196659066</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>155</v>
@@ -10466,19 +10466,19 @@
         <v>97728</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>82826</v>
+        <v>83136</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>113803</v>
+        <v>116210</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1182647539034244</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.100230443874548</v>
+        <v>0.1006061704629048</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.137716678547868</v>
+        <v>0.140629724604811</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>226</v>
@@ -10487,19 +10487,19 @@
         <v>176368</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>152275</v>
+        <v>153415</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>200734</v>
+        <v>203761</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1276513062843362</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1102131454578858</v>
+        <v>0.1110385993927971</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1452864668741823</v>
+        <v>0.1474778159172784</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>116029</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96275</v>
+        <v>96947</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138949</v>
+        <v>138009</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2089529073017073</v>
+        <v>0.2089529073017072</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1733786827924633</v>
+        <v>0.1745888207595285</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2502290973519061</v>
+        <v>0.2485351842649917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>263</v>
@@ -10537,19 +10537,19 @@
         <v>156371</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>138025</v>
+        <v>136886</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>173872</v>
+        <v>175461</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.189230119900808</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1670294225119405</v>
+        <v>0.1656511635723806</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2104093298920073</v>
+        <v>0.212331932314187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>374</v>
@@ -10558,19 +10558,19 @@
         <v>272400</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>244460</v>
+        <v>247930</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>303558</v>
+        <v>302942</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1971567967781596</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1769344223329347</v>
+        <v>0.1794463126235051</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2197081618155157</v>
+        <v>0.2192627785932795</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>197716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>175372</v>
+        <v>174848</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>223969</v>
+        <v>222201</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3560604917216967</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3158209407331326</v>
+        <v>0.3148788475741404</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4033378022363855</v>
+        <v>0.4001548547191304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>514</v>
@@ -10608,19 +10608,19 @@
         <v>326021</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>302808</v>
+        <v>300077</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>350174</v>
+        <v>348494</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3945304214197146</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3664388272346435</v>
+        <v>0.3631344676128481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4237587043099096</v>
+        <v>0.4217257936352907</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>710</v>
@@ -10629,19 +10629,19 @@
         <v>523738</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>491947</v>
+        <v>490096</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>557251</v>
+        <v>560447</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3790691838161132</v>
+        <v>0.3790691838161131</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3560601868338985</v>
+        <v>0.3547201432629585</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4033254572753003</v>
+        <v>0.4056387508951925</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>162903</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>142089</v>
+        <v>138853</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>185879</v>
+        <v>187420</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2933666655891016</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2558837845595027</v>
+        <v>0.2500558685396186</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3347429953723506</v>
+        <v>0.3375187381133355</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>351</v>
@@ -10679,19 +10679,19 @@
         <v>246232</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>224057</v>
+        <v>221905</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>269572</v>
+        <v>268734</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2979747047760531</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2711401519268188</v>
+        <v>0.2685352280313267</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3262188140353793</v>
+        <v>0.3252048412855014</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>510</v>
@@ -10700,19 +10700,19 @@
         <v>409135</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>379501</v>
+        <v>374598</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>443662</v>
+        <v>439662</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2961227131213911</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2746740301431745</v>
+        <v>0.271125369090653</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3211126629591216</v>
+        <v>0.3182170709047297</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>58883</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>40685</v>
+        <v>39961</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>82584</v>
+        <v>82881</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2669447465975397</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1844469086654943</v>
+        <v>0.1811630500647729</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3743959995521946</v>
+        <v>0.3757430011747674</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>209</v>
@@ -10825,19 +10825,19 @@
         <v>152895</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>131134</v>
+        <v>130418</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>178691</v>
+        <v>178695</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.18432209080438</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1580880540511875</v>
+        <v>0.1572253884847736</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2154212499076237</v>
+        <v>0.2154256323040053</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>236</v>
@@ -10846,19 +10846,19 @@
         <v>211777</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>181977</v>
+        <v>181548</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>244573</v>
+        <v>246243</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2016778358983456</v>
+        <v>0.2016778358983457</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1732981133395106</v>
+        <v>0.1728903636860144</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2329093608118924</v>
+        <v>0.2344995098134932</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>74825</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>55256</v>
+        <v>56185</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>97463</v>
+        <v>99935</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3392177185879029</v>
+        <v>0.3392177185879031</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2505029250568955</v>
+        <v>0.2547151675785873</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.441850174492747</v>
+        <v>0.4530549963854286</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>300</v>
@@ -10896,19 +10896,19 @@
         <v>227372</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>205543</v>
+        <v>203770</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>254260</v>
+        <v>253064</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2741079536288184</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2477915803214897</v>
+        <v>0.2456543085793763</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3065224293041274</v>
+        <v>0.3050811379587881</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>335</v>
@@ -10917,19 +10917,19 @@
         <v>302197</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>271244</v>
+        <v>270159</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>333704</v>
+        <v>336623</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2877849345114815</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2583086572197141</v>
+        <v>0.2572756308675157</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3177896610253466</v>
+        <v>0.3205692819819163</v>
       </c>
     </row>
     <row r="31">
@@ -10946,19 +10946,19 @@
         <v>51762</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>34486</v>
+        <v>33344</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>73217</v>
+        <v>72503</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2346631777588084</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1563445446802655</v>
+        <v>0.1511642299137413</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3319278536538696</v>
+        <v>0.3286937408034198</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>431</v>
@@ -10967,19 +10967,19 @@
         <v>300056</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>274563</v>
+        <v>274275</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>326263</v>
+        <v>326494</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3617314848363294</v>
+        <v>0.3617314848363293</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3309988580079114</v>
+        <v>0.3306520790839151</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3933261866320841</v>
+        <v>0.3936043912779287</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>458</v>
@@ -10988,19 +10988,19 @@
         <v>351818</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>319604</v>
+        <v>322845</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>385076</v>
+        <v>386947</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3350394700857967</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3043619060660242</v>
+        <v>0.3074482648120039</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3667116156701639</v>
+        <v>0.3684937897938868</v>
       </c>
     </row>
     <row r="32">
@@ -11017,19 +11017,19 @@
         <v>35111</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>19873</v>
+        <v>20647</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>54079</v>
+        <v>53287</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1591743570557489</v>
+        <v>0.159174357055749</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09009618896940795</v>
+        <v>0.09360535180848287</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2451663127777407</v>
+        <v>0.2415782289657275</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>194</v>
@@ -11038,19 +11038,19 @@
         <v>149176</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>128326</v>
+        <v>128064</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>171050</v>
+        <v>171249</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1798384707304723</v>
+        <v>0.1798384707304722</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1547034114962422</v>
+        <v>0.1543869154559775</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2062095731190881</v>
+        <v>0.2064493165356025</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>211</v>
@@ -11059,19 +11059,19 @@
         <v>184286</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>157293</v>
+        <v>156993</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>212787</v>
+        <v>213630</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1754977595043763</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1497920923994682</v>
+        <v>0.1495062710480937</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.202638936556117</v>
+        <v>0.2034417871958636</v>
       </c>
     </row>
     <row r="33">
@@ -11163,19 +11163,19 @@
         <v>937666</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>880320</v>
+        <v>880044</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>999976</v>
+        <v>994874</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2760296411217976</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2591483008112479</v>
+        <v>0.259067025929252</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2943724091532872</v>
+        <v>0.2928705292569209</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1272</v>
@@ -11184,19 +11184,19 @@
         <v>873666</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>828800</v>
+        <v>827724</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>921859</v>
+        <v>917623</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2423892692076425</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2299415115106764</v>
+        <v>0.2296430072270461</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2557598212329005</v>
+        <v>0.2545845121143259</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2185</v>
@@ -11205,19 +11205,19 @@
         <v>1811332</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1736388</v>
+        <v>1739995</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1880826</v>
+        <v>1887775</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2587111497441211</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2480069022823233</v>
+        <v>0.2485221150656688</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2686369079413476</v>
+        <v>0.2696294944944949</v>
       </c>
     </row>
     <row r="35">
@@ -11234,19 +11234,19 @@
         <v>1031796</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>972112</v>
+        <v>976593</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1091864</v>
+        <v>1089885</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3037397273854585</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2861699654464867</v>
+        <v>0.287488878091763</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3214224446506474</v>
+        <v>0.320839835905057</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1490</v>
@@ -11255,19 +11255,19 @@
         <v>1026884</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>978323</v>
+        <v>976173</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1075869</v>
+        <v>1075602</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2848979888763986</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2714250627849357</v>
+        <v>0.2708288008607416</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2984882215125638</v>
+        <v>0.2984141210722824</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2504</v>
@@ -11276,19 +11276,19 @@
         <v>2058681</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1983129</v>
+        <v>1988960</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>2135481</v>
+        <v>2140757</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2940397607280659</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2832488019798176</v>
+        <v>0.284081563494543</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3050091411007799</v>
+        <v>0.3057626276656169</v>
       </c>
     </row>
     <row r="36">
@@ -11305,19 +11305,19 @@
         <v>944947</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>882213</v>
+        <v>884569</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1004938</v>
+        <v>1002419</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2781731167907135</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2597055617879665</v>
+        <v>0.2603991658545219</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2958333184795026</v>
+        <v>0.2950915282096201</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1589</v>
@@ -11326,19 +11326,19 @@
         <v>1097926</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1051397</v>
+        <v>1053419</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1149600</v>
+        <v>1149770</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3046076904486091</v>
+        <v>0.304607690448609</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2916987615217307</v>
+        <v>0.2922596642761881</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3189441251091251</v>
+        <v>0.3189912028244618</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2489</v>
@@ -11347,19 +11347,19 @@
         <v>2042873</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1965680</v>
+        <v>1964538</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2116575</v>
+        <v>2117339</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2917819715660135</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2807565565938815</v>
+        <v>0.2805935023387942</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3023088311633411</v>
+        <v>0.3024178986177929</v>
       </c>
     </row>
     <row r="37">
@@ -11376,19 +11376,19 @@
         <v>482566</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>442872</v>
+        <v>440847</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>534668</v>
+        <v>528895</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1420575147020304</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1303724074583818</v>
+        <v>0.1297764611888791</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1573954704418681</v>
+        <v>0.1556959308780693</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>845</v>
@@ -11397,19 +11397,19 @@
         <v>605917</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>566642</v>
+        <v>566221</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>645593</v>
+        <v>647747</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1681050514673499</v>
+        <v>0.1681050514673498</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1572086420366686</v>
+        <v>0.1570918177029662</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1791127118858199</v>
+        <v>0.1797104201004324</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1289</v>
@@ -11418,19 +11418,19 @@
         <v>1088483</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1029923</v>
+        <v>1025598</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1153054</v>
+        <v>1153482</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1554671179617994</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.147103098333432</v>
+        <v>0.1464853721533586</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1646898291149643</v>
+        <v>0.1647508891838603</v>
       </c>
     </row>
     <row r="38">
